--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WZZ6P4\Desktop\Documents\Personal\Education\MSDS\NLP\NLP_Assigmnet3_Transformer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aritakvorian/Desktop/Documents/Education/UT Graduate/Natural Language Processing (AI 388)/NLP_Assignment3_Transformer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7646648D-D6DE-4171-9C9E-F786200B455A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C27F86-83F9-634E-8937-1815EC5766E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22537" yWindow="-15052" windowWidth="26301" windowHeight="14169" xr2:uid="{68EE5E1E-81B0-47A6-9354-1E822B084AD2}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20120" xr2:uid="{68EE5E1E-81B0-47A6-9354-1E822B084AD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,12 +93,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -113,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -136,11 +142,63 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8696B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8696B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8696B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -159,8 +217,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF8696B"/>
       <color rgb="FF63BE7B"/>
-      <color rgb="FFF8696B"/>
     </mruColors>
   </colors>
   <extLst>
@@ -175,9 +233,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -215,7 +273,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -321,7 +379,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -463,7 +521,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -473,19 +531,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3DCD1B-349B-4E76-8812-D2BFB0071286}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="8" width="11" style="4"/>
     <col min="9" max="9" width="14.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -510,14 +568,14 @@
       <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>20</v>
       </c>
@@ -549,7 +607,7 @@
         <v>23.184000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>20</v>
       </c>
@@ -581,7 +639,7 @@
         <v>13.6692</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>20</v>
       </c>
@@ -613,7 +671,7 @@
         <v>12.7864</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>20</v>
       </c>
@@ -645,7 +703,7 @@
         <v>13.3429</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>20</v>
       </c>
@@ -677,7 +735,7 @@
         <v>12.68</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>20</v>
       </c>
@@ -709,7 +767,7 @@
         <v>13.775</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -741,7 +799,7 @@
         <v>16.1492</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>20</v>
       </c>
@@ -773,7 +831,7 @@
         <v>11.7523</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>20</v>
       </c>
@@ -805,7 +863,7 @@
         <v>12.4084</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>20</v>
       </c>
@@ -837,7 +895,7 @@
         <v>12.1896</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>20</v>
       </c>
@@ -869,7 +927,7 @@
         <v>12.6099</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>20</v>
       </c>
@@ -901,7 +959,7 @@
         <v>12.038600000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>20</v>
       </c>
@@ -933,7 +991,7 @@
         <v>13.4617</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>20</v>
       </c>
@@ -965,7 +1023,7 @@
         <v>13.8011</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>20</v>
       </c>
@@ -997,7 +1055,7 @@
         <v>17.551500000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>20</v>
       </c>
@@ -1029,7 +1087,7 @@
         <v>12.4514</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>20</v>
       </c>
@@ -1061,7 +1119,7 @@
         <v>12.7783</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>20</v>
       </c>
@@ -1093,79 +1151,199 @@
         <v>12.5863</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>20</v>
+      </c>
+      <c r="B20" s="5">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5">
+        <v>25</v>
+      </c>
+      <c r="D20" s="5">
+        <v>24</v>
+      </c>
+      <c r="E20" s="5">
+        <v>12</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="G20" s="5">
+        <v>4</v>
+      </c>
+      <c r="H20" s="5">
+        <v>6</v>
+      </c>
+      <c r="I20" s="6">
+        <v>6.8109999999999999</v>
+      </c>
+      <c r="J20" s="6">
+        <v>15.9948</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1</v>
+      </c>
+      <c r="C21" s="5">
+        <v>25</v>
+      </c>
+      <c r="D21" s="5">
+        <v>50</v>
+      </c>
+      <c r="E21" s="5">
+        <v>25</v>
+      </c>
+      <c r="F21" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="G21" s="5">
+        <v>10</v>
+      </c>
+      <c r="H21" s="5">
+        <v>5</v>
+      </c>
+      <c r="I21" s="6">
+        <v>6.2927999999999997</v>
+      </c>
+      <c r="J21" s="6">
+        <v>46.276400000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5">
+        <v>25</v>
+      </c>
+      <c r="D22" s="5">
+        <v>24</v>
+      </c>
+      <c r="E22" s="5">
+        <v>18</v>
+      </c>
+      <c r="F22" s="7">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="G22" s="5">
+        <v>3</v>
+      </c>
+      <c r="H22" s="5">
+        <v>1</v>
+      </c>
+      <c r="I22" s="6">
+        <v>9.8162000000000003</v>
+      </c>
+      <c r="J22" s="6">
+        <v>12.186199999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <v>20</v>
+      </c>
+      <c r="B23" s="5">
+        <v>1</v>
+      </c>
+      <c r="C23" s="5">
+        <v>100</v>
+      </c>
+      <c r="D23" s="5">
+        <v>24</v>
+      </c>
+      <c r="E23" s="5">
+        <v>18</v>
+      </c>
+      <c r="F23" s="7">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="G23" s="5">
+        <v>3</v>
+      </c>
+      <c r="H23" s="5">
+        <v>1</v>
+      </c>
+      <c r="I23" s="6">
+        <v>8.5324000000000009</v>
+      </c>
+      <c r="J23" s="6">
+        <v>13.0169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <v>20</v>
+      </c>
+      <c r="B24" s="5">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5">
+        <v>100</v>
+      </c>
+      <c r="D24" s="5">
+        <v>24</v>
+      </c>
+      <c r="E24" s="5">
+        <v>18</v>
+      </c>
+      <c r="F24" s="7">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="G24" s="5">
+        <v>3</v>
+      </c>
+      <c r="H24" s="5">
+        <v>6</v>
+      </c>
+      <c r="I24" s="6">
+        <v>7.6592000000000002</v>
+      </c>
+      <c r="J24" s="6">
+        <v>15.192600000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
+        <v>20</v>
+      </c>
+      <c r="B25" s="5">
+        <v>1</v>
+      </c>
+      <c r="C25" s="5">
+        <v>100</v>
+      </c>
+      <c r="D25" s="5">
+        <v>250</v>
+      </c>
+      <c r="E25" s="5">
+        <v>100</v>
+      </c>
+      <c r="F25" s="7">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="G25" s="5">
+        <v>2</v>
+      </c>
+      <c r="H25" s="5">
+        <v>3</v>
+      </c>
+      <c r="I25" s="6">
+        <v>6.9739000000000004</v>
+      </c>
+      <c r="J25" s="6">
+        <v>107.8819</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1177,7 +1355,7 @@
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1189,7 +1367,7 @@
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1201,7 +1379,7 @@
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1213,7 +1391,7 @@
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1225,7 +1403,7 @@
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1237,7 +1415,7 @@
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -1249,7 +1427,7 @@
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -1263,10 +1441,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="top10" dxfId="1" priority="2" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="5" priority="4" stopIfTrue="1" rank="1"/>
+    <cfRule type="top10" dxfId="4" priority="2" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="6" priority="3" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="3" priority="1" stopIfTrue="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
